--- a/data/trans_bre/BARTHEL_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R3-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.729607272514587</v>
+        <v>-7.245468933391379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.470598159510676</v>
+        <v>8.961285870142612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.64609501563769</v>
+        <v>5.01880880975783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.8186334699131</v>
+        <v>10.72482735316335</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3643115059617583</v>
+        <v>-0.3856086392329082</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5195598356703319</v>
+        <v>0.4807937038621148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2065398652895874</v>
+        <v>0.2139093913897545</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4104645733748514</v>
+        <v>0.3926469926608601</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.39136017717201</v>
+        <v>10.38407200814103</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.86028203758538</v>
+        <v>27.22196924975885</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.12485495867377</v>
+        <v>24.14121601756732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.29002572721686</v>
+        <v>25.17771416188959</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9463802189406504</v>
+        <v>0.9823179442855051</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.276088869595355</v>
+        <v>2.920761076948237</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.852816739640254</v>
+        <v>1.832424571532446</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.460449050144274</v>
+        <v>1.425803021595309</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.641053287448061</v>
+        <v>-1.206894746882954</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5380690443069717</v>
+        <v>1.741188698853785</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.543238051282017</v>
+        <v>2.41429740253822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9.262647450417258</v>
+        <v>9.236958525212952</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06674952502677346</v>
+        <v>-0.0786856465494232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001914322290952455</v>
+        <v>0.05629202218929428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1006438866085381</v>
+        <v>0.1011916150164911</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3918931931012503</v>
+        <v>0.3990316079045531</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.95725798793278</v>
+        <v>16.65573331245535</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.01522821467185</v>
+        <v>21.87797729296222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.76338883700246</v>
+        <v>19.42646409086956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22.04736023257925</v>
+        <v>22.23359381219424</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.388383377745097</v>
+        <v>1.49500896497583</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.133779223398162</v>
+        <v>1.159063638601122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.348878202497007</v>
+        <v>1.313670994796976</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.415116018596838</v>
+        <v>1.433389301867855</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.8503026477542373</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5096502396279246</v>
+        <v>0.5096502396279243</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.654157899416209</v>
+        <v>-1.753927599748056</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8040430249436946</v>
+        <v>-3.289024935894839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.926722062733733</v>
+        <v>2.77140898237678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.535684753316007</v>
+        <v>4.201945887273281</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1369176223185871</v>
+        <v>-0.1196422662280165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08028666346866764</v>
+        <v>-0.1280574116923789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1270792449233767</v>
+        <v>0.1121717518456536</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1283772123021491</v>
+        <v>0.1366067385460874</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.47017031622274</v>
+        <v>15.87033209715891</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.89728353864013</v>
+        <v>22.0568374612334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.00725854638598</v>
+        <v>25.67344599817813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.50152041131906</v>
+        <v>20.88351035635976</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.410014122144824</v>
+        <v>2.399476873289752</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.735428975842011</v>
+        <v>1.625943658868216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.116291416871237</v>
+        <v>2.051002997771758</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.019623867132392</v>
+        <v>1.098802919047769</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.828029919479725</v>
+        <v>1.95792132416499</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.057265248833296</v>
+        <v>1.377292493286053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.90000847938817</v>
+        <v>7.19577136077391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10.74775478096462</v>
+        <v>12.03817784220606</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1505197471933599</v>
+        <v>0.09033154967404551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07480405911445948</v>
+        <v>0.06355558884342405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3444333225885809</v>
+        <v>0.3817048214119967</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4424419007134364</v>
+        <v>0.5001669382092537</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.11444028934584</v>
+        <v>17.18472779420179</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.97022619490526</v>
+        <v>18.76110353514416</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24.10690788590078</v>
+        <v>23.35868540704614</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.92749759436377</v>
+        <v>23.83747330768772</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.321340792476319</v>
+        <v>2.082885298780597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.548390214398844</v>
+        <v>1.566808066954354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.296983813569296</v>
+        <v>2.13906151826956</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.411253592658311</v>
+        <v>1.430876772533733</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.8144915277670763</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.763876834795952</v>
+        <v>0.7638768347959518</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.450306998822487</v>
+        <v>3.241163022013057</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.495315625446771</v>
+        <v>7.833415453009043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.279604832742356</v>
+        <v>8.918204349039231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.30714628503457</v>
+        <v>12.60193912834694</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.151911289320539</v>
+        <v>0.207879018853291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3399854401493474</v>
+        <v>0.3838851936076307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4660626143659354</v>
+        <v>0.4780036333228499</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.527895786590003</v>
+        <v>0.5430983762766953</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.25971492385305</v>
+        <v>11.62938117367496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.27300610323029</v>
+        <v>17.84015707107275</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.47583703934092</v>
+        <v>18.76919236132097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.34126897484494</v>
+        <v>19.34745561071107</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9949857365169597</v>
+        <v>1.061146935349448</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.07822165799717</v>
+        <v>1.144727759860751</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.256210535731937</v>
+        <v>1.267413537488586</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.007316522545616</v>
+        <v>0.9897319955556753</v>
       </c>
     </row>
     <row r="19">
